--- a/stroopdata - excel计算.csv.xlsx
+++ b/stroopdata - excel计算.csv.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,30 +8,70 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Test-a-Perceptual-Phenomenon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41FC47EE-86C9-4A3B-9E22-7255F2DD8459}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{72CA3D05-43B1-4B61-8DD8-F3747BDE1A5F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23145" windowHeight="10260"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23145" windowHeight="10260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="stroopdata - excel计算" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="stroopdata - excel计算" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Congruent</t>
   </si>
   <si>
     <t>Incongruent</t>
   </si>
+  <si>
+    <t>t-检验: 双样本异方差假设</t>
+  </si>
+  <si>
+    <t>变量 1</t>
+  </si>
+  <si>
+    <t>变量 2</t>
+  </si>
+  <si>
+    <t>平均</t>
+  </si>
+  <si>
+    <t>方差</t>
+  </si>
+  <si>
+    <t>观测值</t>
+  </si>
+  <si>
+    <t>假设平均差</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) 单尾</t>
+  </si>
+  <si>
+    <t>t 单尾临界</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) 双尾</t>
+  </si>
+  <si>
+    <t>t 双尾临界</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -374,7 +414,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -489,6 +529,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -618,9 +678,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -976,19 +1045,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787543D7-F842-4782-B9E9-D93702C384A0}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.125" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>14.051125000000001</v>
+      </c>
+      <c r="C4" s="1">
+        <v>22.015916666666669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>12.669029070652117</v>
+      </c>
+      <c r="C5" s="1">
+        <v>23.011757036231874</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1">
+        <v>42</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
+        <v>-6.5322505539032356</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3.40517840705625E-8</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1.6819523574675355</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1">
+        <v>6.8103568141125E-8</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2">
+        <v>2.0180817028184461</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.875" customWidth="1"/>
+    <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -996,15 +1198,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>12.079000000000001</v>
       </c>
       <c r="B2">
         <v>19.277999999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <f>TTEST(A2:A25,B2:B25,2,1)</f>
+        <v>4.1030005857111378E-8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>16.791</v>
       </c>
@@ -1012,7 +1218,7 @@
         <v>18.741</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>9.5640000000000001</v>
       </c>
@@ -1020,7 +1226,7 @@
         <v>21.213999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>8.6300000000000008</v>
       </c>
@@ -1028,7 +1234,7 @@
         <v>15.686999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>14.669</v>
       </c>
@@ -1036,7 +1242,7 @@
         <v>22.803000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>12.238</v>
       </c>
@@ -1044,7 +1250,7 @@
         <v>20.878</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>14.692</v>
       </c>
@@ -1052,7 +1258,7 @@
         <v>24.571999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8.9870000000000001</v>
       </c>
@@ -1060,7 +1266,7 @@
         <v>17.393999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9.4009999999999998</v>
       </c>
@@ -1068,7 +1274,7 @@
         <v>20.762</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>14.48</v>
       </c>
@@ -1076,7 +1282,7 @@
         <v>26.282</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>22.327999999999999</v>
       </c>
@@ -1084,7 +1290,7 @@
         <v>24.524000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>15.298</v>
       </c>
@@ -1092,7 +1298,7 @@
         <v>18.643999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>15.073</v>
       </c>
@@ -1100,7 +1306,7 @@
         <v>17.510000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>16.928999999999998</v>
       </c>
@@ -1108,7 +1314,7 @@
         <v>20.329999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>18.2</v>
       </c>

--- a/stroopdata - excel计算.csv.xlsx
+++ b/stroopdata - excel计算.csv.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Test-a-Perceptual-Phenomenon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{72CA3D05-43B1-4B61-8DD8-F3747BDE1A5F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{43087DB6-1BE1-496D-AB98-B56DEC3DC952}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23145" windowHeight="10260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="stroopdata - excel计算" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
+    <sheet name="stroopdata - excel计算" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>Congruent</t>
   </si>
@@ -66,6 +67,12 @@
   </si>
   <si>
     <t>t 双尾临界</t>
+  </si>
+  <si>
+    <t>t-检验: 双样本等方差假设</t>
+  </si>
+  <si>
+    <t>合并方差</t>
   </si>
 </sst>
 </file>
@@ -1177,10 +1184,151 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B66398A-3EB9-4AE6-A592-377B808FA4D3}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.75" customWidth="1"/>
+    <col min="2" max="2" width="13.25" customWidth="1"/>
+    <col min="3" max="3" width="16.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>14.051125000000001</v>
+      </c>
+      <c r="C4" s="1">
+        <v>22.015916666666669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>12.669029070652117</v>
+      </c>
+      <c r="C5" s="1">
+        <v>23.011757036231874</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
+        <v>24</v>
+      </c>
+      <c r="C6" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1">
+        <v>17.840393053441996</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>46</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-6.5322505539032356</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2.2974744811475391E-8</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1.678660413556865</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1">
+        <v>4.5949489622950782E-8</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2.0128955989194299</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>

--- a/stroopdata - excel计算.csv.xlsx
+++ b/stroopdata - excel计算.csv.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Test-a-Perceptual-Phenomenon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Test-a-Perceptual-Phenomenon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{43087DB6-1BE1-496D-AB98-B56DEC3DC952}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4A2E1218-0622-4ECF-989F-C78DEEC15A74}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23145" windowHeight="10260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>Congruent</t>
   </si>
@@ -74,6 +74,10 @@
   <si>
     <t>合并方差</t>
   </si>
+  <si>
+    <t>Difference</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -240,7 +244,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -418,6 +422,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -685,7 +695,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -697,6 +707,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1187,7 +1200,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B66398A-3EB9-4AE6-A592-377B808FA4D3}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection sqref="A1:C14"/>
     </sheetView>
   </sheetViews>
@@ -1329,12 +1342,14 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" customWidth="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="16.75" customWidth="1"/>
     <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1345,6 +1360,9 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
@@ -1353,6 +1371,10 @@
       <c r="B2">
         <v>19.277999999999999</v>
       </c>
+      <c r="C2">
+        <f>A2-B2</f>
+        <v>-7.1989999999999981</v>
+      </c>
       <c r="E2">
         <f>TTEST(A2:A25,B2:B25,2,1)</f>
         <v>4.1030005857111378E-8</v>
@@ -1365,6 +1387,10 @@
       <c r="B3">
         <v>18.741</v>
       </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C25" si="0">A3-B3</f>
+        <v>-1.9499999999999993</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -1373,6 +1399,10 @@
       <c r="B4">
         <v>21.213999999999999</v>
       </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>-11.649999999999999</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -1381,6 +1411,10 @@
       <c r="B5">
         <v>15.686999999999999</v>
       </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>-7.0569999999999986</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -1389,6 +1423,10 @@
       <c r="B6">
         <v>22.803000000000001</v>
       </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>-8.1340000000000003</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -1397,6 +1435,10 @@
       <c r="B7">
         <v>20.878</v>
       </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>-8.64</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -1405,6 +1447,10 @@
       <c r="B8">
         <v>24.571999999999999</v>
       </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>-9.879999999999999</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -1413,6 +1459,10 @@
       <c r="B9">
         <v>17.393999999999998</v>
       </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>-8.4069999999999983</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -1421,6 +1471,10 @@
       <c r="B10">
         <v>20.762</v>
       </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>-11.361000000000001</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -1429,6 +1483,10 @@
       <c r="B11">
         <v>26.282</v>
       </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>-11.802</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -1437,6 +1495,10 @@
       <c r="B12">
         <v>24.524000000000001</v>
       </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>-2.1960000000000015</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -1445,6 +1507,10 @@
       <c r="B13">
         <v>18.643999999999998</v>
       </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>-3.3459999999999983</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -1453,6 +1519,10 @@
       <c r="B14">
         <v>17.510000000000002</v>
       </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>-2.4370000000000012</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -1461,6 +1531,10 @@
       <c r="B15">
         <v>20.329999999999998</v>
       </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>-3.4009999999999998</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -1469,80 +1543,120 @@
       <c r="B16">
         <v>35.255000000000003</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>-17.055000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>12.13</v>
       </c>
       <c r="B17">
         <v>22.158000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>-10.028</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>18.495000000000001</v>
       </c>
       <c r="B18">
         <v>25.138999999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>-6.6439999999999984</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>10.638999999999999</v>
       </c>
       <c r="B19">
         <v>20.428999999999998</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>-9.7899999999999991</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>11.343999999999999</v>
       </c>
       <c r="B20">
         <v>17.425000000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>-6.0810000000000013</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>12.369</v>
       </c>
       <c r="B21">
         <v>34.287999999999997</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>-21.918999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>12.944000000000001</v>
       </c>
       <c r="B22">
         <v>23.893999999999998</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>-10.949999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>14.233000000000001</v>
       </c>
       <c r="B23">
         <v>17.96</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>-3.7270000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>19.71</v>
       </c>
       <c r="B24">
         <v>22.058</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>-2.347999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>16.004000000000001</v>
       </c>
       <c r="B25">
         <v>21.157</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>-5.1529999999999987</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <f>AVERAGE(A2:A25)</f>
         <v>14.051125000000001</v>
@@ -1551,8 +1665,12 @@
         <f>AVERAGE(B2:B25)</f>
         <v>22.015916666666669</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C27">
+        <f>AVERAGE(C2:C25)</f>
+        <v>-7.964791666666664</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <f>_xlfn.STDEV.P(A2:A25)</f>
         <v>3.4844157127666247</v>
@@ -1561,11 +1679,35 @@
         <f>_xlfn.STDEV.P(B2:B25)</f>
         <v>4.6960551345133137</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C28">
+        <f>_xlfn.STDEV.P(C2:C25)</f>
+        <v>4.7623980302221591</v>
+      </c>
+      <c r="D28">
+        <f>C28/SQRT(24)</f>
+        <v>0.97212042717333269</v>
+      </c>
+      <c r="E28">
+        <f>C27/D28</f>
+        <v>-8.1932150009707723</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <f>_xlfn.T.TEST(A2:A25,B2:B25,2,1)</f>
         <v>4.1030005857111378E-8</v>
+      </c>
+      <c r="C29">
+        <f>STDEV(C2:C25)</f>
+        <v>4.8648269103590565</v>
+      </c>
+      <c r="D29">
+        <f>C29/SQRT(24)</f>
+        <v>0.9930286347783408</v>
+      </c>
+      <c r="E29" s="4">
+        <f>C27/D29</f>
+        <v>-8.0207069441099534</v>
       </c>
     </row>
   </sheetData>
